--- a/MySQL/configuration/etapas.xlsx
+++ b/MySQL/configuration/etapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69A6DE-B179-4E2F-B655-F501564CF781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B9E6F-3AE3-4ED3-AB98-434858B1FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id_etapa</t>
   </si>
@@ -33,9 +33,6 @@
     <t>id_receta_maestra</t>
   </si>
   <si>
-    <t>id_parametro</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>E2</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -372,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,7 +379,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,31 +395,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -433,19 +421,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -453,15 +438,12 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>1</v>
       </c>
     </row>

--- a/MySQL/configuration/etapas.xlsx
+++ b/MySQL/configuration/etapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B9E6F-3AE3-4ED3-AB98-434858B1FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB0909-D544-4D02-B966-4DCDA5B98A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>id_etapa</t>
   </si>
@@ -49,16 +49,25 @@
   </si>
   <si>
     <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +456,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MySQL/configuration/etapas.xlsx
+++ b/MySQL/configuration/etapas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB0909-D544-4D02-B966-4DCDA5B98A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0DFE5-CF4F-43D1-86AA-279512D59ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>id_etapa</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,6 +524,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MySQL/configuration/etapas.xlsx
+++ b/MySQL/configuration/etapas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0DFE5-CF4F-43D1-86AA-279512D59ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD19486-4076-4A09-B20C-C3A461AB7D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>id_etapa</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +584,125 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
